--- a/ResultadoEleicoesDistritos/ÉVORA_BORBA.xlsx
+++ b/ResultadoEleicoesDistritos/ÉVORA_BORBA.xlsx
@@ -597,64 +597,64 @@
         <v>1728</v>
       </c>
       <c r="H2" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I2" t="n">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="J2" t="n">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M2" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N2" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
         <v>2</v>
       </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S2" t="n">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="T2" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V2" t="n">
         <v>1097</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>1089</v>
+        <v>1111</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AA2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
